--- a/searches/abstracts/coding jmw/metaanalysis_abstracts_extracted.xlsx
+++ b/searches/abstracts/coding jmw/metaanalysis_abstracts_extracted.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\projects\2015growth\searches\abstracts\coding jmw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26024"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="metaanalysis_abstracts_extracte" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>x</t>
   </si>
@@ -100,13 +100,16 @@
   </si>
   <si>
     <t>jmw</t>
+  </si>
+  <si>
+    <t>this appears to be an editorial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +240,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,7 +558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -582,6 +601,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -589,7 +612,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -618,11 +641,15 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -689,7 +716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +751,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,7 +928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -909,18 +936,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="62.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,207 +955,291 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="266">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="196">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="210">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="112">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="280">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="140">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="350">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="196">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="336">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="294">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="322">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="350">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="252">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="336">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="196">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="126">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="182">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="182">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="168">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="280">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="154">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="224">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="280">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="140">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="252">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>